--- a/LearningFitnessFromTranscriptome_ImagingDatasetsSummary.xlsx
+++ b/LearningFitnessFromTranscriptome_ImagingDatasetsSummary.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saeedalahmari/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/WD Element/Collaboration/Moffitt_Noemi/Aim1_AllenModel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963688E1-AF3D-804D-9C3C-632FF2FF7AC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18AB3861-734B-AB4D-82E8-00A850D9F15A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38620" yWindow="500" windowWidth="32940" windowHeight="16480" xr2:uid="{2203230D-A210-4A47-AC8D-C79B9B0E5897}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" activeTab="1" xr2:uid="{2203230D-A210-4A47-AC8D-C79B9B0E5897}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Models" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>Dataset</t>
   </si>
@@ -82,13 +83,129 @@
   </si>
   <si>
     <t>B01_OperaPhenixTraining_230804</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>batch size</t>
+  </si>
+  <si>
+    <t>patch shape</t>
+  </si>
+  <si>
+    <t>train path</t>
+  </si>
+  <si>
+    <t>val path</t>
+  </si>
+  <si>
+    <t>init model</t>
+  </si>
+  <si>
+    <t>init model trained on Lecia?</t>
+  </si>
+  <si>
+    <t>learning rate</t>
+  </si>
+  <si>
+    <t>n_iterations</t>
+  </si>
+  <si>
+    <t>seed</t>
+  </si>
+  <si>
+    <t>path2saved model</t>
+  </si>
+  <si>
+    <t>A03_allenModel_opera_B01_finetuned_09282023</t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>128</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>128</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>/data/saeed3/Noemi_Moffitt/renameOperaImages/n_train_opera_B01_finetune_230710.csv'</t>
+  </si>
+  <si>
+    <t>/data/saeed3/Noemi_Moffitt/renameOperaImages/n_val_opera_B01_finetune_230710.csv</t>
+  </si>
+  <si>
+    <t>/data/saeed3/Noemi_Moffitt/Aim1_allenModel/PMO_MeasuringFitnessperClone-andrew/3D_Imaging/allenModelTraining/A03_allenModel_original_sise_02252023/model.p</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>./A03_allenModel_opera_B01_finetuned_09282023</t>
+  </si>
+  <si>
+    <t>Avg Corr Coef</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -123,6 +240,30 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF6A9955"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF569CD6"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFCE9178"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -144,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -162,6 +303,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="47" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,7 +623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8208DBB-70C7-834A-B0CF-03B1FC84A335}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="143" zoomScaleNormal="143" workbookViewId="0">
+    <sheetView zoomScale="143" zoomScaleNormal="143" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -594,4 +739,101 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9256F18-20FA-8140-9A11-DF214F57A4E0}">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
+        <v>45196.969754872684</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="J2">
+        <v>50000</v>
+      </c>
+      <c r="K2">
+        <v>42</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2">
+        <v>-1.591068E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>